--- a/Исходники/LDK/Апрель 23/шаблон 990.xlsx
+++ b/Исходники/LDK/Апрель 23/шаблон 990.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TsvetkovDS\Documents\Оперативная папка\CONCAT_YOUR_EXCELS\Исходники\LDK\Апрель 23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439D7790-F6D2-40C8-9C4F-F5B9F3400FD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE24B72-9BB1-4FA8-A5C6-CE538671E03C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="3300" sheetId="2" r:id="rId1"/>
+    <sheet name="01" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3300'!$A$11:$U$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01'!$A$11:$U$12</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
 </workbook>
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:U199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
